--- a/ExportedFolder/invoice10.jpg_1-1.xlsx
+++ b/ExportedFolder/invoice10.jpg_1-1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <x:si>
     <x:t>Vendor Address</x:t>
   </x:si>
@@ -61,16 +61,16 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>[Street Address]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5/1/2014</x:t>
+    <x:t>[Street Address] [city, ST ZP]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2014-05-01</x:t>
   </x:si>
   <x:si>
     <x:t>[123456]</x:t>
   </x:si>
   <x:si>
-    <x:t>$2,484.84</x:t>
+    <x:t>2484.84</x:t>
   </x:si>
   <x:si>
     <x:t>table</x:t>
@@ -81,16 +81,7 @@
   </x:si>
   <x:si>
     <x:t>Key,Value
-"Address Line 1","[Street Address]"
-"Address Line 2",""
-"Address Line 3",""
-"City",""
-"Country",""
-"State / County / Province",""
-"Zip Postal Code",""</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2014-05-01</x:t>
+"Address Line 1","[Street Address] [city ST ZP]"</x:t>
   </x:si>
   <x:si>
     <x:t>Description</x:t>
@@ -184,7 +175,19 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
+  <x:cellStyleXfs count="8">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -656,7 +659,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
         <x:v>13</x:v>
@@ -702,51 +705,51 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+      <x:c r="C1" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
+      <x:c r="D1" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
+      <x:c r="E1" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="E1" s="0" t="s">
+      <x:c r="F1" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F1" s="0" t="s">
+      <x:c r="G1" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="G1" s="0" t="s">
+      <x:c r="H1" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
+      <x:c r="D2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
+      <x:c r="F2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
         <x:v>13</x:v>
@@ -754,25 +757,25 @@
     </x:row>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
       <x:c r="F3" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
         <x:v>13</x:v>
@@ -800,51 +803,51 @@
   <x:sheetData>
     <x:row r="1" spans="1:8">
       <x:c r="A1" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+      <x:c r="C1" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
+      <x:c r="D1" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
+      <x:c r="E1" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="E1" s="0" t="s">
+      <x:c r="F1" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="F1" s="0" t="s">
+      <x:c r="G1" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="G1" s="0" t="s">
+      <x:c r="H1" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="H1" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="A2" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
         <x:v>13</x:v>
@@ -852,25 +855,25 @@
     </x:row>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
       <x:c r="F3" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
         <x:v>13</x:v>
